--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="7995"/>
+    <workbookView windowWidth="19665" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>redditors_name</t>
   </si>
   <si>
-    <t>redditors_id</t>
-  </si>
-  <si>
     <t>subreddits_name</t>
-  </si>
-  <si>
-    <t>subreddits_id</t>
   </si>
   <si>
     <t>hashtags</t>
@@ -41,10 +35,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -57,35 +51,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +88,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -108,30 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,22 +144,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,15 +159,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,30 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +211,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,25 +283,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +337,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,121 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +414,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -447,17 +453,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,190 +502,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,92 +914,63 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="16.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" ht="14.25" spans="2:4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" ht="12.75" spans="2:4">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="12.75" spans="4:4">
-      <c r="D12" s="1"/>
-    </row>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
